--- a/countryCodesHDI.xlsx
+++ b/countryCodesHDI.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/eScience_UW/WiinterSchool/PythonSession/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03648905-5E00-EE40-8298-4BDF7441290C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C39200B-DF2E-5B40-89BD-B9161D630E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="countryCodes" sheetId="1" r:id="rId1"/>
@@ -1479,9 +1479,6 @@
     <t>ALA</t>
   </si>
   <si>
-    <t>ÔøΩland Islands</t>
-  </si>
-  <si>
     <t>NF</t>
   </si>
   <si>
@@ -2497,12 +2494,15 @@
   </si>
   <si>
     <t>HDI</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3336,11 +3336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3362,7 +3362,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5767,7 +5767,7 @@
         <v>481</v>
       </c>
       <c r="D143" t="s">
-        <v>482</v>
+        <v>821</v>
       </c>
       <c r="E143" t="e">
         <v>#N/A</v>
@@ -5775,16 +5775,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>482</v>
+      </c>
+      <c r="B144" t="s">
+        <v>482</v>
+      </c>
+      <c r="C144" t="s">
         <v>483</v>
       </c>
-      <c r="B144" t="s">
-        <v>483</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>484</v>
-      </c>
-      <c r="D144" t="s">
-        <v>485</v>
       </c>
       <c r="E144" t="e">
         <v>#N/A</v>
@@ -5795,13 +5795,13 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
+        <v>485</v>
+      </c>
+      <c r="C145" t="s">
         <v>486</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>487</v>
-      </c>
-      <c r="D145" t="s">
-        <v>488</v>
       </c>
       <c r="E145" t="e">
         <v>#N/A</v>
@@ -5809,16 +5809,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B146" t="s">
         <v>24</v>
       </c>
       <c r="C146" t="s">
+        <v>489</v>
+      </c>
+      <c r="D146" t="s">
         <v>490</v>
-      </c>
-      <c r="D146" t="s">
-        <v>491</v>
       </c>
       <c r="E146" t="e">
         <v>#N/A</v>
@@ -5826,16 +5826,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>491</v>
+      </c>
+      <c r="B147" t="s">
+        <v>491</v>
+      </c>
+      <c r="C147" t="s">
         <v>492</v>
       </c>
-      <c r="B147" t="s">
-        <v>492</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>493</v>
-      </c>
-      <c r="D147" t="s">
-        <v>494</v>
       </c>
       <c r="E147" t="e">
         <v>#N/A</v>
@@ -5843,16 +5843,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>494</v>
+      </c>
+      <c r="B148" t="s">
         <v>495</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>496</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>497</v>
-      </c>
-      <c r="D148" t="s">
-        <v>498</v>
       </c>
       <c r="E148" t="e">
         <v>#N/A</v>
@@ -5860,16 +5860,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>498</v>
+      </c>
+      <c r="B149" t="s">
+        <v>498</v>
+      </c>
+      <c r="C149" t="s">
         <v>499</v>
       </c>
-      <c r="B149" t="s">
-        <v>499</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>500</v>
-      </c>
-      <c r="D149" t="s">
-        <v>501</v>
       </c>
       <c r="E149" t="e">
         <v>#N/A</v>
@@ -5877,16 +5877,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>501</v>
+      </c>
+      <c r="B150" t="s">
+        <v>501</v>
+      </c>
+      <c r="C150" t="s">
         <v>502</v>
       </c>
-      <c r="B150" t="s">
-        <v>502</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>503</v>
-      </c>
-      <c r="D150" t="s">
-        <v>504</v>
       </c>
       <c r="E150" t="e">
         <v>#N/A</v>
@@ -5894,16 +5894,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>504</v>
+      </c>
+      <c r="B151" t="s">
         <v>505</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>506</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>507</v>
-      </c>
-      <c r="D151" t="s">
-        <v>508</v>
       </c>
       <c r="E151" t="e">
         <v>#N/A</v>
@@ -5911,13 +5911,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
+        <v>508</v>
+      </c>
+      <c r="C152" t="s">
         <v>509</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>510</v>
-      </c>
-      <c r="D152" t="s">
-        <v>511</v>
       </c>
       <c r="E152" t="e">
         <v>#N/A</v>
@@ -5925,16 +5925,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>511</v>
+      </c>
+      <c r="B153" t="s">
         <v>512</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>513</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>514</v>
-      </c>
-      <c r="D153" t="s">
-        <v>515</v>
       </c>
       <c r="E153">
         <v>0.60899999999999999</v>
@@ -5942,16 +5942,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B154" t="s">
         <v>428</v>
       </c>
       <c r="C154" t="s">
+        <v>516</v>
+      </c>
+      <c r="D154" t="s">
         <v>517</v>
-      </c>
-      <c r="D154" t="s">
-        <v>518</v>
       </c>
       <c r="E154">
         <v>0.53900000000000003</v>
@@ -5959,16 +5959,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>518</v>
+      </c>
+      <c r="B155" t="s">
+        <v>518</v>
+      </c>
+      <c r="C155" t="s">
         <v>519</v>
       </c>
-      <c r="B155" t="s">
-        <v>519</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>520</v>
-      </c>
-      <c r="D155" t="s">
-        <v>521</v>
       </c>
       <c r="E155">
         <v>0.94399999999999995</v>
@@ -5976,16 +5976,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>521</v>
+      </c>
+      <c r="B156" t="s">
+        <v>521</v>
+      </c>
+      <c r="C156" t="s">
         <v>522</v>
       </c>
-      <c r="B156" t="s">
-        <v>522</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>523</v>
-      </c>
-      <c r="D156" t="s">
-        <v>524</v>
       </c>
       <c r="E156">
         <v>0.95699999999999996</v>
@@ -5993,16 +5993,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>524</v>
+      </c>
+      <c r="B157" t="s">
+        <v>524</v>
+      </c>
+      <c r="C157" t="s">
         <v>525</v>
       </c>
-      <c r="B157" t="s">
-        <v>525</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>526</v>
-      </c>
-      <c r="D157" t="s">
-        <v>527</v>
       </c>
       <c r="E157">
         <v>0.60199999999999998</v>
@@ -6010,16 +6010,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>527</v>
+      </c>
+      <c r="B158" t="s">
+        <v>527</v>
+      </c>
+      <c r="C158" t="s">
         <v>528</v>
       </c>
-      <c r="B158" t="s">
-        <v>528</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>529</v>
-      </c>
-      <c r="D158" t="s">
-        <v>530</v>
       </c>
       <c r="E158" t="e">
         <v>#N/A</v>
@@ -6027,16 +6027,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>530</v>
+      </c>
+      <c r="B159" t="s">
         <v>531</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>532</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>533</v>
-      </c>
-      <c r="D159" t="s">
-        <v>534</v>
       </c>
       <c r="E159">
         <v>0.73799999999999999</v>
@@ -6047,13 +6047,13 @@
         <v>425</v>
       </c>
       <c r="B160" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C160" t="s">
+        <v>534</v>
+      </c>
+      <c r="D160" t="s">
         <v>535</v>
-      </c>
-      <c r="D160" t="s">
-        <v>536</v>
       </c>
       <c r="E160">
         <v>0.66</v>
@@ -6061,16 +6061,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>536</v>
+      </c>
+      <c r="B161" t="s">
+        <v>536</v>
+      </c>
+      <c r="C161" t="s">
         <v>537</v>
       </c>
-      <c r="B161" t="s">
-        <v>537</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>538</v>
-      </c>
-      <c r="D161" t="s">
-        <v>539</v>
       </c>
       <c r="E161">
         <v>0.93100000000000005</v>
@@ -6078,16 +6078,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>539</v>
+      </c>
+      <c r="B162" t="s">
         <v>540</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>541</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>542</v>
-      </c>
-      <c r="D162" t="s">
-        <v>543</v>
       </c>
       <c r="E162">
         <v>0.72799999999999998</v>
@@ -6095,16 +6095,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>543</v>
+      </c>
+      <c r="B163" t="s">
+        <v>543</v>
+      </c>
+      <c r="C163" t="s">
         <v>544</v>
       </c>
-      <c r="B163" t="s">
-        <v>544</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>545</v>
-      </c>
-      <c r="D163" t="s">
-        <v>546</v>
       </c>
       <c r="E163">
         <v>0.77700000000000002</v>
@@ -6112,16 +6112,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>546</v>
+      </c>
+      <c r="B164" t="s">
+        <v>546</v>
+      </c>
+      <c r="C164" t="s">
         <v>547</v>
       </c>
-      <c r="B164" t="s">
-        <v>547</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>548</v>
-      </c>
-      <c r="D164" t="s">
-        <v>549</v>
       </c>
       <c r="E164">
         <v>0.55700000000000005</v>
@@ -6129,16 +6129,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>549</v>
+      </c>
+      <c r="B165" t="s">
+        <v>549</v>
+      </c>
+      <c r="C165" t="s">
         <v>550</v>
       </c>
-      <c r="B165" t="s">
-        <v>550</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>551</v>
-      </c>
-      <c r="D165" t="s">
-        <v>552</v>
       </c>
       <c r="E165">
         <v>0.88</v>
@@ -6146,16 +6146,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>552</v>
+      </c>
+      <c r="B166" t="s">
+        <v>539</v>
+      </c>
+      <c r="C166" t="s">
         <v>553</v>
       </c>
-      <c r="B166" t="s">
-        <v>540</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>554</v>
-      </c>
-      <c r="D166" t="s">
-        <v>555</v>
       </c>
       <c r="E166">
         <v>0.81499999999999995</v>
@@ -6163,16 +6163,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>555</v>
+      </c>
+      <c r="B167" t="s">
         <v>556</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>557</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>558</v>
-      </c>
-      <c r="D167" t="s">
-        <v>559</v>
       </c>
       <c r="E167">
         <v>0.86399999999999999</v>
@@ -6180,16 +6180,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>559</v>
+      </c>
+      <c r="B168" t="s">
         <v>560</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>561</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>562</v>
-      </c>
-      <c r="D168" t="s">
-        <v>563</v>
       </c>
       <c r="E168">
         <v>0.55500000000000005</v>
@@ -6197,16 +6197,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>563</v>
+      </c>
+      <c r="B169" t="s">
         <v>564</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>565</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>566</v>
-      </c>
-      <c r="D169" t="s">
-        <v>567</v>
       </c>
       <c r="E169">
         <v>0.48</v>
@@ -6214,16 +6214,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>567</v>
+      </c>
+      <c r="B170" t="s">
+        <v>567</v>
+      </c>
+      <c r="C170" t="s">
         <v>568</v>
       </c>
-      <c r="B170" t="s">
-        <v>568</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>569</v>
-      </c>
-      <c r="D170" t="s">
-        <v>570</v>
       </c>
       <c r="E170">
         <v>0.84799999999999998</v>
@@ -6231,16 +6231,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>570</v>
+      </c>
+      <c r="B171" t="s">
+        <v>570</v>
+      </c>
+      <c r="C171" t="s">
         <v>571</v>
       </c>
-      <c r="B171" t="s">
-        <v>571</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>572</v>
-      </c>
-      <c r="D171" t="s">
-        <v>573</v>
       </c>
       <c r="E171" t="e">
         <v>#N/A</v>
@@ -6248,16 +6248,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>573</v>
+      </c>
+      <c r="B172" t="s">
+        <v>573</v>
+      </c>
+      <c r="C172" t="s">
         <v>574</v>
       </c>
-      <c r="B172" t="s">
-        <v>574</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>575</v>
-      </c>
-      <c r="D172" t="s">
-        <v>576</v>
       </c>
       <c r="E172">
         <v>0.82799999999999996</v>
@@ -6265,16 +6265,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>576</v>
+      </c>
+      <c r="B173" t="s">
+        <v>576</v>
+      </c>
+      <c r="C173" t="s">
         <v>577</v>
       </c>
-      <c r="B173" t="s">
-        <v>577</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>578</v>
-      </c>
-      <c r="D173" t="s">
-        <v>579</v>
       </c>
       <c r="E173">
         <v>0.75</v>
@@ -6282,16 +6282,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>579</v>
+      </c>
+      <c r="B174" t="s">
         <v>580</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>581</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>582</v>
-      </c>
-      <c r="D174" t="s">
-        <v>583</v>
       </c>
       <c r="E174">
         <v>0.71799999999999997</v>
@@ -6299,16 +6299,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>583</v>
+      </c>
+      <c r="B175" t="s">
         <v>584</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>585</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>586</v>
-      </c>
-      <c r="D175" t="s">
-        <v>587</v>
       </c>
       <c r="E175" t="e">
         <v>#N/A</v>
@@ -6316,16 +6316,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>587</v>
+      </c>
+      <c r="B176" t="s">
         <v>588</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>589</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>590</v>
-      </c>
-      <c r="D176" t="s">
-        <v>591</v>
       </c>
       <c r="E176">
         <v>0.82399999999999995</v>
@@ -6333,16 +6333,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>591</v>
+      </c>
+      <c r="B177" t="s">
+        <v>591</v>
+      </c>
+      <c r="C177" t="s">
         <v>592</v>
       </c>
-      <c r="B177" t="s">
-        <v>592</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>593</v>
-      </c>
-      <c r="D177" t="s">
-        <v>594</v>
       </c>
       <c r="E177">
         <v>0.54300000000000004</v>
@@ -6350,16 +6350,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>594</v>
+      </c>
+      <c r="B178" t="s">
+        <v>594</v>
+      </c>
+      <c r="C178" t="s">
         <v>595</v>
       </c>
-      <c r="B178" t="s">
-        <v>595</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>596</v>
-      </c>
-      <c r="D178" t="s">
-        <v>597</v>
       </c>
       <c r="E178">
         <v>0.85399999999999998</v>
@@ -6367,16 +6367,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B179" t="s">
         <v>319</v>
       </c>
       <c r="C179" t="s">
+        <v>598</v>
+      </c>
+      <c r="D179" t="s">
         <v>599</v>
-      </c>
-      <c r="D179" t="s">
-        <v>600</v>
       </c>
       <c r="E179">
         <v>0.77900000000000003</v>
@@ -6384,16 +6384,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>600</v>
+      </c>
+      <c r="B180" t="s">
+        <v>597</v>
+      </c>
+      <c r="C180" t="s">
         <v>601</v>
       </c>
-      <c r="B180" t="s">
-        <v>598</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>602</v>
-      </c>
-      <c r="D180" t="s">
-        <v>603</v>
       </c>
       <c r="E180">
         <v>0.79600000000000004</v>
@@ -6401,16 +6401,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>603</v>
+      </c>
+      <c r="B181" t="s">
         <v>604</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>605</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>606</v>
-      </c>
-      <c r="D181" t="s">
-        <v>607</v>
       </c>
       <c r="E181">
         <v>0.70899999999999996</v>
@@ -6424,10 +6424,10 @@
         <v>362</v>
       </c>
       <c r="C182" t="s">
+        <v>607</v>
+      </c>
+      <c r="D182" t="s">
         <v>608</v>
-      </c>
-      <c r="D182" t="s">
-        <v>609</v>
       </c>
       <c r="E182">
         <v>0.52700000000000002</v>
@@ -6435,16 +6435,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>609</v>
+      </c>
+      <c r="B183" t="s">
         <v>610</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>611</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>612</v>
-      </c>
-      <c r="D183" t="s">
-        <v>613</v>
       </c>
       <c r="E183">
         <v>0.73499999999999999</v>
@@ -6452,16 +6452,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>613</v>
+      </c>
+      <c r="B184" t="s">
         <v>614</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>615</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>616</v>
-      </c>
-      <c r="D184" t="s">
-        <v>617</v>
       </c>
       <c r="E184">
         <v>0.51200000000000001</v>
@@ -6469,16 +6469,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>617</v>
+      </c>
+      <c r="B185" t="s">
+        <v>617</v>
+      </c>
+      <c r="C185" t="s">
         <v>618</v>
       </c>
-      <c r="B185" t="s">
-        <v>618</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>619</v>
-      </c>
-      <c r="D185" t="s">
-        <v>620</v>
       </c>
       <c r="E185">
         <v>0.91700000000000004</v>
@@ -6486,16 +6486,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>620</v>
+      </c>
+      <c r="B186" t="s">
+        <v>620</v>
+      </c>
+      <c r="C186" t="s">
         <v>621</v>
       </c>
-      <c r="B186" t="s">
-        <v>621</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>622</v>
-      </c>
-      <c r="D186" t="s">
-        <v>623</v>
       </c>
       <c r="E186">
         <v>0.45200000000000001</v>
@@ -6503,16 +6503,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B187" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C187" t="s">
+        <v>623</v>
+      </c>
+      <c r="D187" t="s">
         <v>624</v>
-      </c>
-      <c r="D187" t="s">
-        <v>625</v>
       </c>
       <c r="E187">
         <v>0.93799999999999994</v>
@@ -6520,16 +6520,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>625</v>
+      </c>
+      <c r="B188" t="s">
+        <v>625</v>
+      </c>
+      <c r="C188" t="s">
         <v>626</v>
       </c>
-      <c r="B188" t="s">
-        <v>626</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>627</v>
-      </c>
-      <c r="D188" t="s">
-        <v>628</v>
       </c>
       <c r="E188" t="e">
         <v>#N/A</v>
@@ -6537,16 +6537,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B189" t="s">
         <v>189</v>
       </c>
       <c r="C189" t="s">
+        <v>629</v>
+      </c>
+      <c r="D189" t="s">
         <v>630</v>
-      </c>
-      <c r="D189" t="s">
-        <v>631</v>
       </c>
       <c r="E189">
         <v>0.90400000000000003</v>
@@ -6554,16 +6554,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>631</v>
+      </c>
+      <c r="B190" t="s">
         <v>632</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>633</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>634</v>
-      </c>
-      <c r="D190" t="s">
-        <v>635</v>
       </c>
       <c r="E190">
         <v>0.75900000000000001</v>
@@ -6571,16 +6571,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>635</v>
+      </c>
+      <c r="B191" t="s">
         <v>636</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>637</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>638</v>
-      </c>
-      <c r="D191" t="s">
-        <v>639</v>
       </c>
       <c r="E191">
         <v>0.51</v>
@@ -6588,16 +6588,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>639</v>
+      </c>
+      <c r="B192" t="s">
+        <v>600</v>
+      </c>
+      <c r="C192" t="s">
         <v>640</v>
       </c>
-      <c r="B192" t="s">
-        <v>601</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>641</v>
-      </c>
-      <c r="D192" t="s">
-        <v>642</v>
       </c>
       <c r="E192">
         <v>0.94499999999999995</v>
@@ -6605,16 +6605,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>642</v>
+      </c>
+      <c r="B193" t="s">
+        <v>642</v>
+      </c>
+      <c r="C193" t="s">
         <v>643</v>
       </c>
-      <c r="B193" t="s">
-        <v>643</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>644</v>
-      </c>
-      <c r="D193" t="s">
-        <v>645</v>
       </c>
       <c r="E193">
         <v>0.56699999999999995</v>
@@ -6622,16 +6622,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B194" t="s">
         <v>104</v>
       </c>
       <c r="C194" t="s">
+        <v>646</v>
+      </c>
+      <c r="D194" t="s">
         <v>647</v>
-      </c>
-      <c r="D194" t="s">
-        <v>648</v>
       </c>
       <c r="E194">
         <v>0.95499999999999996</v>
@@ -6642,13 +6642,13 @@
         <v>125</v>
       </c>
       <c r="B195" t="s">
+        <v>648</v>
+      </c>
+      <c r="C195" t="s">
         <v>649</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>650</v>
-      </c>
-      <c r="D195" t="s">
-        <v>651</v>
       </c>
       <c r="E195">
         <v>0.79600000000000004</v>
@@ -6656,16 +6656,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>651</v>
+      </c>
+      <c r="B196" t="s">
+        <v>651</v>
+      </c>
+      <c r="C196" t="s">
         <v>652</v>
       </c>
-      <c r="B196" t="s">
-        <v>652</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>653</v>
-      </c>
-      <c r="D196" t="s">
-        <v>654</v>
       </c>
       <c r="E196">
         <v>0.77700000000000002</v>
@@ -6673,16 +6673,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>654</v>
+      </c>
+      <c r="B197" t="s">
         <v>655</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>656</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>657</v>
-      </c>
-      <c r="D197" t="s">
-        <v>658</v>
       </c>
       <c r="E197">
         <v>0.66800000000000004</v>
@@ -6690,16 +6690,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>658</v>
+      </c>
+      <c r="B198" t="s">
         <v>659</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>660</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>661</v>
-      </c>
-      <c r="D198" t="s">
-        <v>662</v>
       </c>
       <c r="E198" t="e">
         <v>#N/A</v>
@@ -6707,16 +6707,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>662</v>
+      </c>
+      <c r="B199" t="s">
         <v>663</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>664</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>665</v>
-      </c>
-      <c r="D199" t="s">
-        <v>666</v>
       </c>
       <c r="E199">
         <v>0.72499999999999998</v>
@@ -6724,16 +6724,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B200" t="s">
+        <v>666</v>
+      </c>
+      <c r="C200" t="s">
         <v>667</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>668</v>
-      </c>
-      <c r="D200" t="s">
-        <v>669</v>
       </c>
       <c r="E200">
         <v>0.51500000000000001</v>
@@ -6741,16 +6741,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>669</v>
+      </c>
+      <c r="B201" t="s">
+        <v>631</v>
+      </c>
+      <c r="C201" t="s">
         <v>670</v>
       </c>
-      <c r="B201" t="s">
-        <v>632</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>671</v>
-      </c>
-      <c r="D201" t="s">
-        <v>672</v>
       </c>
       <c r="E201">
         <v>0.625</v>
@@ -6758,16 +6758,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>672</v>
+      </c>
+      <c r="B202" t="s">
+        <v>662</v>
+      </c>
+      <c r="C202" t="s">
         <v>673</v>
       </c>
-      <c r="B202" t="s">
-        <v>663</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>674</v>
-      </c>
-      <c r="D202" t="s">
-        <v>675</v>
       </c>
       <c r="E202">
         <v>0.74</v>
@@ -6775,16 +6775,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>675</v>
+      </c>
+      <c r="B203" t="s">
         <v>676</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>677</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>678</v>
-      </c>
-      <c r="D203" t="s">
-        <v>679</v>
       </c>
       <c r="E203">
         <v>0.82</v>
@@ -6792,16 +6792,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>679</v>
+      </c>
+      <c r="B204" t="s">
+        <v>679</v>
+      </c>
+      <c r="C204" t="s">
         <v>680</v>
       </c>
-      <c r="B204" t="s">
-        <v>680</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>681</v>
-      </c>
-      <c r="D204" t="s">
-        <v>682</v>
       </c>
       <c r="E204" t="e">
         <v>#N/A</v>
@@ -6809,16 +6809,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>682</v>
+      </c>
+      <c r="B205" t="s">
         <v>683</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>684</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>685</v>
-      </c>
-      <c r="D205" t="s">
-        <v>686</v>
       </c>
       <c r="E205">
         <v>0.71499999999999997</v>
@@ -6826,16 +6826,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>686</v>
+      </c>
+      <c r="B206" t="s">
+        <v>686</v>
+      </c>
+      <c r="C206" t="s">
         <v>687</v>
       </c>
-      <c r="B206" t="s">
-        <v>687</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>688</v>
-      </c>
-      <c r="D206" t="s">
-        <v>689</v>
       </c>
       <c r="E206">
         <v>0.52900000000000003</v>
@@ -6843,16 +6843,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>689</v>
+      </c>
+      <c r="B207" t="s">
+        <v>689</v>
+      </c>
+      <c r="C207" t="s">
         <v>690</v>
       </c>
-      <c r="B207" t="s">
-        <v>690</v>
-      </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>691</v>
-      </c>
-      <c r="D207" t="s">
-        <v>692</v>
       </c>
       <c r="E207">
         <v>0.54400000000000004</v>
@@ -6860,16 +6860,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B208" t="s">
         <v>230</v>
       </c>
       <c r="C208" t="s">
+        <v>693</v>
+      </c>
+      <c r="D208" t="s">
         <v>694</v>
-      </c>
-      <c r="D208" t="s">
-        <v>695</v>
       </c>
       <c r="E208">
         <v>0.93200000000000005</v>
@@ -6877,16 +6877,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>695</v>
+      </c>
+      <c r="B209" t="s">
         <v>696</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>697</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>698</v>
-      </c>
-      <c r="D209" t="s">
-        <v>699</v>
       </c>
       <c r="E209">
         <v>0.77900000000000003</v>
@@ -6894,16 +6894,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>699</v>
+      </c>
+      <c r="B210" t="s">
+        <v>699</v>
+      </c>
+      <c r="C210" t="s">
         <v>700</v>
       </c>
-      <c r="B210" t="s">
-        <v>700</v>
-      </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>701</v>
-      </c>
-      <c r="D210" t="s">
-        <v>702</v>
       </c>
       <c r="E210">
         <v>0.92600000000000005</v>
@@ -6911,16 +6911,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B211" t="s">
         <v>45</v>
       </c>
       <c r="C211" t="s">
+        <v>703</v>
+      </c>
+      <c r="D211" t="s">
         <v>704</v>
-      </c>
-      <c r="D211" t="s">
-        <v>705</v>
       </c>
       <c r="E211">
         <v>0.45200000000000001</v>
@@ -6928,16 +6928,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>705</v>
+      </c>
+      <c r="B212" t="s">
+        <v>705</v>
+      </c>
+      <c r="C212" t="s">
         <v>706</v>
       </c>
-      <c r="B212" t="s">
-        <v>706</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>707</v>
-      </c>
-      <c r="D212" t="s">
-        <v>708</v>
       </c>
       <c r="E212">
         <v>0.81699999999999995</v>
@@ -6945,16 +6945,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>708</v>
+      </c>
+      <c r="B213" t="s">
+        <v>708</v>
+      </c>
+      <c r="C213" t="s">
         <v>709</v>
       </c>
-      <c r="B213" t="s">
-        <v>709</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>710</v>
-      </c>
-      <c r="D213" t="s">
-        <v>711</v>
       </c>
       <c r="E213">
         <v>0.72</v>
@@ -6962,16 +6962,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>711</v>
+      </c>
+      <c r="B214" t="s">
+        <v>711</v>
+      </c>
+      <c r="C214" t="s">
         <v>712</v>
       </c>
-      <c r="B214" t="s">
-        <v>712</v>
-      </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>713</v>
-      </c>
-      <c r="D214" t="s">
-        <v>714</v>
       </c>
       <c r="E214">
         <v>0.73799999999999999</v>
@@ -6979,16 +6979,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>714</v>
+      </c>
+      <c r="B215" t="s">
+        <v>714</v>
+      </c>
+      <c r="C215" t="s">
         <v>715</v>
       </c>
-      <c r="B215" t="s">
-        <v>715</v>
-      </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>716</v>
-      </c>
-      <c r="D215" t="s">
-        <v>717</v>
       </c>
       <c r="E215">
         <v>0.71099999999999997</v>
@@ -6996,16 +6996,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>717</v>
+      </c>
+      <c r="B216" t="s">
         <v>718</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>719</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>720</v>
-      </c>
-      <c r="D216" t="s">
-        <v>721</v>
       </c>
       <c r="E216" t="e">
         <v>#N/A</v>
@@ -7013,16 +7013,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>721</v>
+      </c>
+      <c r="B217" t="s">
         <v>722</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>723</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>724</v>
-      </c>
-      <c r="D217" t="s">
-        <v>725</v>
       </c>
       <c r="E217">
         <v>0.70399999999999996</v>
@@ -7030,16 +7030,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>725</v>
+      </c>
+      <c r="B218" t="s">
+        <v>717</v>
+      </c>
+      <c r="C218" t="s">
         <v>726</v>
       </c>
-      <c r="B218" t="s">
-        <v>718</v>
-      </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>727</v>
-      </c>
-      <c r="D218" t="s">
-        <v>728</v>
       </c>
       <c r="E218" t="e">
         <v>#N/A</v>
@@ -7047,16 +7047,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>728</v>
+      </c>
+      <c r="B219" t="s">
         <v>729</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>730</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>731</v>
-      </c>
-      <c r="D219" t="s">
-        <v>732</v>
       </c>
       <c r="E219">
         <v>0.64600000000000002</v>
@@ -7064,16 +7064,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>732</v>
+      </c>
+      <c r="B220" t="s">
+        <v>732</v>
+      </c>
+      <c r="C220" t="s">
         <v>733</v>
       </c>
-      <c r="B220" t="s">
-        <v>733</v>
-      </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>734</v>
-      </c>
-      <c r="D220" t="s">
-        <v>735</v>
       </c>
       <c r="E220" t="e">
         <v>#N/A</v>
@@ -7081,16 +7081,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>735</v>
+      </c>
+      <c r="B221" t="s">
+        <v>735</v>
+      </c>
+      <c r="C221" t="s">
         <v>736</v>
       </c>
-      <c r="B221" t="s">
-        <v>736</v>
-      </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>737</v>
-      </c>
-      <c r="D221" t="s">
-        <v>738</v>
       </c>
       <c r="E221">
         <v>0.71499999999999997</v>
@@ -7098,16 +7098,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>738</v>
+      </c>
+      <c r="B222" t="s">
+        <v>645</v>
+      </c>
+      <c r="C222" t="s">
         <v>739</v>
       </c>
-      <c r="B222" t="s">
-        <v>646</v>
-      </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>740</v>
-      </c>
-      <c r="D222" t="s">
-        <v>741</v>
       </c>
       <c r="E222">
         <v>0.61099999999999999</v>
@@ -7115,16 +7115,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>741</v>
+      </c>
+      <c r="B223" t="s">
         <v>742</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>743</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>744</v>
-      </c>
-      <c r="D223" t="s">
-        <v>745</v>
       </c>
       <c r="E223">
         <v>0.47</v>
@@ -7132,16 +7132,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B224" t="s">
+        <v>745</v>
+      </c>
+      <c r="C224" t="s">
         <v>746</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>747</v>
-      </c>
-      <c r="D224" t="s">
-        <v>748</v>
       </c>
       <c r="E224">
         <v>0.58399999999999996</v>
@@ -7149,16 +7149,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>748</v>
+      </c>
+      <c r="B225" t="s">
         <v>749</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>750</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>751</v>
-      </c>
-      <c r="D225" t="s">
-        <v>752</v>
       </c>
       <c r="E225">
         <v>0.57099999999999995</v>
@@ -7166,16 +7166,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>752</v>
+      </c>
+      <c r="B226" t="s">
+        <v>752</v>
+      </c>
+      <c r="C226" t="s">
         <v>753</v>
       </c>
-      <c r="B226" t="s">
-        <v>753</v>
-      </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>754</v>
-      </c>
-      <c r="D226" t="s">
-        <v>755</v>
       </c>
       <c r="E226">
         <v>0.71799999999999997</v>
@@ -7183,16 +7183,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>755</v>
+      </c>
+      <c r="B227" t="s">
+        <v>755</v>
+      </c>
+      <c r="C227" t="s">
         <v>756</v>
       </c>
-      <c r="B227" t="s">
-        <v>756</v>
-      </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>757</v>
-      </c>
-      <c r="D227" t="s">
-        <v>758</v>
       </c>
       <c r="E227" t="e">
         <v>#N/A</v>
@@ -7200,16 +7200,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B228" t="s">
         <v>451</v>
       </c>
       <c r="C228" t="s">
+        <v>759</v>
+      </c>
+      <c r="D228" t="s">
         <v>760</v>
-      </c>
-      <c r="D228" t="s">
-        <v>761</v>
       </c>
       <c r="E228" t="e">
         <v>#N/A</v>
@@ -7217,16 +7217,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>761</v>
+      </c>
+      <c r="B229" t="s">
+        <v>761</v>
+      </c>
+      <c r="C229" t="s">
         <v>762</v>
       </c>
-      <c r="B229" t="s">
-        <v>762</v>
-      </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>763</v>
-      </c>
-      <c r="D229" t="s">
-        <v>764</v>
       </c>
       <c r="E229">
         <v>0.89</v>
@@ -7234,16 +7234,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B230" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C230" t="s">
+        <v>764</v>
+      </c>
+      <c r="D230" t="s">
         <v>765</v>
-      </c>
-      <c r="D230" t="s">
-        <v>766</v>
       </c>
       <c r="E230">
         <v>0.60599999999999998</v>
@@ -7251,16 +7251,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>766</v>
+      </c>
+      <c r="B231" t="s">
         <v>767</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>768</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>769</v>
-      </c>
-      <c r="D231" t="s">
-        <v>770</v>
       </c>
       <c r="E231" t="e">
         <v>#N/A</v>
@@ -7271,13 +7271,13 @@
         <v>469</v>
       </c>
       <c r="B232" t="s">
+        <v>770</v>
+      </c>
+      <c r="C232" t="s">
         <v>771</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>772</v>
-      </c>
-      <c r="D232" t="s">
-        <v>773</v>
       </c>
       <c r="E232">
         <v>0.82599999999999996</v>
@@ -7285,16 +7285,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B233" t="s">
         <v>379</v>
       </c>
       <c r="C233" t="s">
+        <v>774</v>
+      </c>
+      <c r="D233" t="s">
         <v>775</v>
-      </c>
-      <c r="D233" t="s">
-        <v>776</v>
       </c>
       <c r="E233">
         <v>0.70399999999999996</v>
@@ -7305,13 +7305,13 @@
         <v>70</v>
       </c>
       <c r="B234" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C234" t="s">
+        <v>776</v>
+      </c>
+      <c r="D234" t="s">
         <v>777</v>
-      </c>
-      <c r="D234" t="s">
-        <v>778</v>
       </c>
       <c r="E234" t="e">
         <v>#N/A</v>
@@ -7319,16 +7319,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>778</v>
+      </c>
+      <c r="B235" t="s">
+        <v>778</v>
+      </c>
+      <c r="C235" t="s">
         <v>779</v>
       </c>
-      <c r="B235" t="s">
-        <v>779</v>
-      </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>780</v>
-      </c>
-      <c r="D235" t="s">
-        <v>781</v>
       </c>
       <c r="E235" t="e">
         <v>#N/A</v>
@@ -7336,16 +7336,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>781</v>
+      </c>
+      <c r="B236" t="s">
+        <v>781</v>
+      </c>
+      <c r="C236" t="s">
         <v>782</v>
       </c>
-      <c r="B236" t="s">
-        <v>782</v>
-      </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>783</v>
-      </c>
-      <c r="D236" t="s">
-        <v>784</v>
       </c>
       <c r="E236" t="e">
         <v>#N/A</v>
@@ -7353,16 +7353,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B237" t="s">
+        <v>784</v>
+      </c>
+      <c r="C237" t="s">
         <v>785</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>786</v>
-      </c>
-      <c r="D237" t="s">
-        <v>787</v>
       </c>
       <c r="E237" t="e">
         <v>#N/A</v>
@@ -7370,16 +7370,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>787</v>
+      </c>
+      <c r="B238" t="s">
         <v>788</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>789</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>790</v>
-      </c>
-      <c r="D238" t="s">
-        <v>791</v>
       </c>
       <c r="E238" t="e">
         <v>#N/A</v>
@@ -7387,16 +7387,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>791</v>
+      </c>
+      <c r="B239" t="s">
+        <v>587</v>
+      </c>
+      <c r="C239" t="s">
         <v>792</v>
       </c>
-      <c r="B239" t="s">
-        <v>588</v>
-      </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>793</v>
-      </c>
-      <c r="D239" t="s">
-        <v>794</v>
       </c>
       <c r="E239">
         <v>0.80600000000000005</v>
@@ -7404,16 +7404,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>794</v>
+      </c>
+      <c r="B240" t="s">
         <v>795</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>796</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>797</v>
-      </c>
-      <c r="D240" t="s">
-        <v>798</v>
       </c>
       <c r="E240" t="e">
         <v>#N/A</v>
@@ -7424,13 +7424,13 @@
         <v>190</v>
       </c>
       <c r="B241" t="s">
+        <v>798</v>
+      </c>
+      <c r="C241" t="s">
         <v>799</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>800</v>
-      </c>
-      <c r="D241" t="s">
-        <v>801</v>
       </c>
       <c r="E241" t="e">
         <v>#N/A</v>
@@ -7438,16 +7438,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B242" t="s">
         <v>476</v>
       </c>
       <c r="C242" t="s">
+        <v>802</v>
+      </c>
+      <c r="D242" t="s">
         <v>803</v>
-      </c>
-      <c r="D242" t="s">
-        <v>804</v>
       </c>
       <c r="E242" t="e">
         <v>#N/A</v>
@@ -7455,16 +7455,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B243" t="s">
         <v>58</v>
       </c>
       <c r="C243" t="s">
+        <v>805</v>
+      </c>
+      <c r="D243" t="s">
         <v>806</v>
-      </c>
-      <c r="D243" t="s">
-        <v>807</v>
       </c>
       <c r="E243" t="e">
         <v>#N/A</v>
@@ -7472,16 +7472,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B244" t="s">
         <v>233</v>
       </c>
       <c r="C244" t="s">
+        <v>808</v>
+      </c>
+      <c r="D244" t="s">
         <v>809</v>
-      </c>
-      <c r="D244" t="s">
-        <v>810</v>
       </c>
       <c r="E244" t="e">
         <v>#N/A</v>
@@ -7489,16 +7489,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>810</v>
+      </c>
+      <c r="B245" t="s">
+        <v>810</v>
+      </c>
+      <c r="C245" t="s">
         <v>811</v>
       </c>
-      <c r="B245" t="s">
-        <v>811</v>
-      </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>812</v>
-      </c>
-      <c r="D245" t="s">
-        <v>813</v>
       </c>
       <c r="E245" t="e">
         <v>#N/A</v>
@@ -7506,16 +7506,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>813</v>
+      </c>
+      <c r="B246" t="s">
         <v>814</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>815</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>816</v>
-      </c>
-      <c r="D246" t="s">
-        <v>817</v>
       </c>
       <c r="E246" t="e">
         <v>#N/A</v>
@@ -7523,16 +7523,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>817</v>
+      </c>
+      <c r="B247" t="s">
+        <v>817</v>
+      </c>
+      <c r="C247" t="s">
         <v>818</v>
       </c>
-      <c r="B247" t="s">
-        <v>818</v>
-      </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>819</v>
-      </c>
-      <c r="D247" t="s">
-        <v>820</v>
       </c>
       <c r="E247" t="e">
         <v>#N/A</v>
